--- a/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -923,7 +924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,17 +935,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -954,13 +975,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银汇利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1208,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,17 +1220,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1239,14 +1260,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.63</v>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1255,13 +1298,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1379,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1390,17 +1391,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1410,14 +1431,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1426,14 +1469,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.63</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1442,13 +1507,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,469 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519110</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3946</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519170</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2814</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>52.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2051</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+      <c r="D4" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1918</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008555</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519113</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浦银安盛精致生活混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011718</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>52.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>960031</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合H</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -926,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>25.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.36</t>
+          <t>86.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2070</t>
+          <t>1.1333</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1015,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>92.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1621</t>
+          <t>0.7801</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1053,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002000</t>
+          <t>501082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信新生利混合</t>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.3642</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1091,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005943</t>
+          <t>011506</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚福混合A</t>
+          <t>建信高端装备股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0846</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1129,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005944</t>
+          <t>007581</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信聚福混合C</t>
+          <t>宝盈鸿利收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>92.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0723</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1167,36 +795,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011023</t>
+          <t>011507</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>民生加银汇利混合</t>
+          <t>建信高端装备股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.64</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,32 +1173,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.24</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.17</t>
+          <t>74.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1333</t>
+          <t>0.2070</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1469,36 +1211,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213001</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7801</t>
+          <t>0.1621</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1507,36 +1249,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501082</t>
+          <t>002000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+          <t>工银瑞信新生利混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.24</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>29.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3642</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1545,36 +1287,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011506</t>
+          <t>005943</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信高端装备股票型证券投资基金A</t>
+          <t>工银瑞信聚福混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.0846</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1583,36 +1325,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007581</t>
+          <t>005944</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
+          <t>工银瑞信聚福混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0723</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1621,150 +1363,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011507</t>
+          <t>011023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信高端装备股票型证券投资基金C</t>
+          <t>民生加银汇利混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>75.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014141</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成新能源混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014142</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成新能源混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1778,96 +1406,468 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.51</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -549,6 +566,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3139</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1116,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1400,7 +2195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
+++ b/数据整理/stocks/A股/科创板/688778-厦钨新能.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>3.28</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.48</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -566,6 +583,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016250</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>588010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证科创板新材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1343,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1741,7 +2194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1911,7 +2364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2195,7 +2648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
